--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafan\Akademik\Tugas_Akhir\Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EFDC92-EA06-4531-AF4B-EF79ACDD778E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10400A05-CD27-4223-9C6C-FC376370A82C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{C9247463-4DE4-4307-B1F9-E43CC65143A5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="1" xr2:uid="{C9247463-4DE4-4307-B1F9-E43CC65143A5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Diversity" sheetId="1" r:id="rId1"/>
+    <sheet name="Exreturn" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
   <si>
     <t>sim(x1,x2)</t>
   </si>
@@ -98,6 +99,15 @@
   </si>
   <si>
     <t>f(x2,x3)</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>ci</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -452,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308DE336-F0AF-4DC1-916C-64B0303F9BE7}">
   <dimension ref="D3:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K13" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView topLeftCell="K19" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1083,4 +1093,162 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3F6F5A-F249-4839-A0DF-7986D313BED4}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>1250</v>
+      </c>
+      <c r="C1">
+        <v>1250</v>
+      </c>
+      <c r="D1">
+        <v>1250</v>
+      </c>
+      <c r="E1">
+        <v>1250</v>
+      </c>
+      <c r="F1">
+        <v>1250</v>
+      </c>
+      <c r="G1">
+        <v>1250</v>
+      </c>
+      <c r="H1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>250</v>
+      </c>
+      <c r="C2">
+        <v>250</v>
+      </c>
+      <c r="D2">
+        <v>250</v>
+      </c>
+      <c r="E2">
+        <v>250</v>
+      </c>
+      <c r="F2">
+        <v>250</v>
+      </c>
+      <c r="G2">
+        <v>250</v>
+      </c>
+      <c r="H2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f ca="1">RAND()</f>
+        <v>0.11899804534126168</v>
+      </c>
+      <c r="D3">
+        <f ca="1">RAND()</f>
+        <v>6.2319133137870075E-2</v>
+      </c>
+      <c r="E3">
+        <f ca="1">RAND()</f>
+        <v>0.71050448242446329</v>
+      </c>
+      <c r="F3">
+        <f ca="1">RAND()</f>
+        <v>0.3422544970899799</v>
+      </c>
+      <c r="G3">
+        <f ca="1">RAND()</f>
+        <v>0.10838865036290679</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <f>(((B1-B2)/B2)*B3)+((-B2/B2)*(1-B3))</f>
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <f ca="1">(((C1-C2)/C2)*C3)+((-C2/C2)*(1-C3))</f>
+        <v>-0.40500977329369159</v>
+      </c>
+      <c r="D4">
+        <f ca="1">(((D1-D2)/D2)*D3)+((-D2/D2)*(1-D3))</f>
+        <v>-0.68840433431064962</v>
+      </c>
+      <c r="E4">
+        <f ca="1">(((E1-E2)/E2)*E3)+((-E2/E2)*(1-E3))</f>
+        <v>2.5525224121223165</v>
+      </c>
+      <c r="F4">
+        <f ca="1">(((F1-F2)/F2)*F3)+((-F2/F2)*(1-F3))</f>
+        <v>0.71127248544989952</v>
+      </c>
+      <c r="G4">
+        <f ca="1">(((G1-G2)/G2)*G3)+((-G2/G2)*(1-G3))</f>
+        <v>-0.45805674818546604</v>
+      </c>
+      <c r="H4">
+        <f>(((H1-H2)/H2)*H3)+((-H2/H2)*(1-H3))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <f>((B1/B2)*B3)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <f ca="1">((C1/C2)*C3)-1</f>
+        <v>-0.40500977329369159</v>
+      </c>
+      <c r="D5">
+        <f ca="1">((D1/D2)*D3)-1</f>
+        <v>-0.68840433431064962</v>
+      </c>
+      <c r="E5">
+        <f ca="1">((E1/E2)*E3)-1</f>
+        <v>2.5525224121223165</v>
+      </c>
+      <c r="F5">
+        <f ca="1">((F1/F2)*F3)-1</f>
+        <v>0.71127248544989952</v>
+      </c>
+      <c r="G5">
+        <f ca="1">((G1/G2)*G3)-1</f>
+        <v>-0.45805674818546604</v>
+      </c>
+      <c r="H5">
+        <f>((H1/H2)*H3)-1</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafan\Akademik\Tugas_Akhir\Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10400A05-CD27-4223-9C6C-FC376370A82C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75786902-ACCE-4E61-B269-26858E75675B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="1" xr2:uid="{C9247463-4DE4-4307-B1F9-E43CC65143A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C9247463-4DE4-4307-B1F9-E43CC65143A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Diversity" sheetId="1" r:id="rId1"/>
     <sheet name="Exreturn" sheetId="2" r:id="rId2"/>
+    <sheet name="Range" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="31">
   <si>
     <t>sim(x1,x2)</t>
   </si>
@@ -109,12 +111,57 @@
   <si>
     <t>G</t>
   </si>
+  <si>
+    <t>Mean X</t>
+  </si>
+  <si>
+    <t>Mean Y</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Mol 5</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Diversity</t>
+  </si>
+  <si>
+    <t>Mol 25</t>
+  </si>
+  <si>
+    <t>Mol 10</t>
+  </si>
+  <si>
+    <t>Mol 50</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Range 1</t>
+  </si>
+  <si>
+    <t>Range 2</t>
+  </si>
+  <si>
+    <t>Range 3</t>
+  </si>
+  <si>
+    <t>Nan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,16 +169,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Var(--vscode-editor-font-family"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,13 +236,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,6 +302,1548 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12305370796041799"/>
+          <c:y val="7.2913268914882298E-2"/>
+          <c:w val="0.82779360460377238"/>
+          <c:h val="0.6299779657172484"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v> Portfolio 5 Molekul </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Range!$D$14:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.3719697749999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3644447369999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Range!$C$14:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>253.60142159499901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>276.866131161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-086F-4C9F-BE64-21132C057091}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v> Portfolio 10 Molekul </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Range!$H$14:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.430282061</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.42671463</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4050637799999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Range!$G$14:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>252.92023607100001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>278.44238473500002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>317.97859685333299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-086F-4C9F-BE64-21132C057091}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v> Portfolio 25 Molekul </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Range!$L$14:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.4752386799999899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.47160912692307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.451568577</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Range!$K$14:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>255.17364771000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>276.57335357769199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>314.55807448600001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-086F-4C9F-BE64-21132C057091}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v> Portfolio 50 Molekul </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Range!$P$14:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.4909370579999901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.48936638633333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Range!$O$14:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>249.18259083000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>275.85678429566599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-086F-4C9F-BE64-21132C057091}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="414486224"/>
+        <c:axId val="404914440"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>Range 2</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:alpha val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:ln w="38100">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:alpha val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Range!$H$5:$H$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>1.3644447369999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.42671463</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.47160912692307</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.48936638633333</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Range!$G$5:$G$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>276.866131161</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>278.44238473500002</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>276.57335357769199</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>275.85678429566599</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-086F-4C9F-BE64-21132C057091}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>Range 1</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:alpha val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:ln w="38100">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:alpha val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Range!$D$5:$D$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>1.3719697749999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.430282061</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.4752386799999899</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.4909370579999901</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Range!$C$5:$C$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>253.60142159499901</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>252.92023607100001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>255.17364771000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>249.18259083000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-086F-4C9F-BE64-21132C057091}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>Range 3</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:alpha val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:ln w="38100">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:alpha val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Range!$L$6:$L$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>1.4050637799999901</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.451568577</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Range!$K$6:$K$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>317.97859685333299</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>314.55807448600001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-086F-4C9F-BE64-21132C057091}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="414486224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>Diversity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404914440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404914440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>Expected</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ID" baseline="0"/>
+                  <a:t> return</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414486224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="249">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="38100">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B206E9F-FFB9-455B-8A02-06552E147B34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,13 +2149,13 @@
       <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="15" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:23">
       <c r="E3" t="s">
         <v>1</v>
       </c>
@@ -489,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:23">
       <c r="E4" t="s">
         <v>2</v>
       </c>
@@ -506,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:23">
       <c r="E5" t="s">
         <v>3</v>
       </c>
@@ -523,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:23">
       <c r="D7" t="s">
         <v>0</v>
       </c>
@@ -561,7 +2244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:23">
       <c r="D8" t="s">
         <v>4</v>
       </c>
@@ -612,7 +2295,7 @@
         <v>1.1662819328671987</v>
       </c>
     </row>
-    <row r="9" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:23">
       <c r="D9" t="s">
         <v>5</v>
       </c>
@@ -655,7 +2338,7 @@
         <v>-2.9861559899403258</v>
       </c>
     </row>
-    <row r="10" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:23">
       <c r="M10" t="s">
         <v>3</v>
       </c>
@@ -680,7 +2363,7 @@
         <v>3.5277264731571267</v>
       </c>
     </row>
-    <row r="14" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:23">
       <c r="E14" t="s">
         <v>1</v>
       </c>
@@ -697,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:23">
       <c r="E15" t="s">
         <v>2</v>
       </c>
@@ -714,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:23">
       <c r="E16" t="s">
         <v>3</v>
       </c>
@@ -731,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:23">
       <c r="D18" t="s">
         <v>0</v>
       </c>
@@ -768,7 +2451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:23">
       <c r="D19" t="s">
         <v>4</v>
       </c>
@@ -816,7 +2499,7 @@
         <v>1.0000000298023224</v>
       </c>
     </row>
-    <row r="20" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:23">
       <c r="D20" t="s">
         <v>5</v>
       </c>
@@ -857,7 +2540,7 @@
         <v>-54107501.25615605</v>
       </c>
     </row>
-    <row r="21" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:23">
       <c r="M21" t="s">
         <v>3</v>
       </c>
@@ -882,7 +2565,7 @@
         <v>-109862945.63259202</v>
       </c>
     </row>
-    <row r="22" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:23">
       <c r="E22" t="s">
         <v>1</v>
       </c>
@@ -899,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:23">
       <c r="E23" t="s">
         <v>2</v>
       </c>
@@ -916,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:23">
       <c r="E24" t="s">
         <v>3</v>
       </c>
@@ -933,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:23">
       <c r="D26" t="s">
         <v>0</v>
       </c>
@@ -970,7 +2653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:23">
       <c r="D27" t="s">
         <v>4</v>
       </c>
@@ -1020,7 +2703,7 @@
         <v>1.3555882856328187</v>
       </c>
     </row>
-    <row r="28" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:23">
       <c r="D28" t="s">
         <v>5</v>
       </c>
@@ -1065,7 +2748,7 @@
         <v>-0.69654377355306418</v>
       </c>
     </row>
-    <row r="29" spans="4:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:23">
       <c r="M29" t="s">
         <v>3</v>
       </c>
@@ -1099,13 +2782,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3F6F5A-F249-4839-A0DF-7986D313BED4}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1131,7 +2814,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1157,7 +2840,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1166,89 +2849,728 @@
       </c>
       <c r="C3">
         <f ca="1">RAND()</f>
-        <v>0.11899804534126168</v>
+        <v>0.56622403674748667</v>
       </c>
       <c r="D3">
         <f ca="1">RAND()</f>
-        <v>6.2319133137870075E-2</v>
+        <v>0.2683596677890292</v>
       </c>
       <c r="E3">
         <f ca="1">RAND()</f>
-        <v>0.71050448242446329</v>
+        <v>0.85507147440603692</v>
       </c>
       <c r="F3">
         <f ca="1">RAND()</f>
-        <v>0.3422544970899799</v>
+        <v>0.39702211696558953</v>
       </c>
       <c r="G3">
         <f ca="1">RAND()</f>
-        <v>0.10838865036290679</v>
+        <v>0.13990594460416717</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="B4">
-        <f>(((B1-B2)/B2)*B3)+((-B2/B2)*(1-B3))</f>
+        <f t="shared" ref="B4:H4" si="0">(((B1-B2)/B2)*B3)+((-B2/B2)*(1-B3))</f>
         <v>-1</v>
       </c>
       <c r="C4">
-        <f ca="1">(((C1-C2)/C2)*C3)+((-C2/C2)*(1-C3))</f>
-        <v>-0.40500977329369159</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8311201837374333</v>
       </c>
       <c r="D4">
-        <f ca="1">(((D1-D2)/D2)*D3)+((-D2/D2)*(1-D3))</f>
-        <v>-0.68840433431064962</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.341798338945146</v>
       </c>
       <c r="E4">
-        <f ca="1">(((E1-E2)/E2)*E3)+((-E2/E2)*(1-E3))</f>
-        <v>2.5525224121223165</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.2753573720301845</v>
       </c>
       <c r="F4">
-        <f ca="1">(((F1-F2)/F2)*F3)+((-F2/F2)*(1-F3))</f>
-        <v>0.71127248544989952</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.98511058482794767</v>
       </c>
       <c r="G4">
-        <f ca="1">(((G1-G2)/G2)*G3)+((-G2/G2)*(1-G3))</f>
-        <v>-0.45805674818546604</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.30047027697916417</v>
       </c>
       <c r="H4">
-        <f>(((H1-H2)/H2)*H3)+((-H2/H2)*(1-H3))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="B5">
-        <f>((B1/B2)*B3)-1</f>
+        <f t="shared" ref="B5:H5" si="1">((B1/B2)*B3)-1</f>
         <v>-1</v>
       </c>
       <c r="C5">
-        <f ca="1">((C1/C2)*C3)-1</f>
-        <v>-0.40500977329369159</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.8311201837374336</v>
       </c>
       <c r="D5">
-        <f ca="1">((D1/D2)*D3)-1</f>
-        <v>-0.68840433431064962</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.341798338945146</v>
       </c>
       <c r="E5">
-        <f ca="1">((E1/E2)*E3)-1</f>
-        <v>2.5525224121223165</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.275357372030185</v>
       </c>
       <c r="F5">
-        <f ca="1">((F1/F2)*F3)-1</f>
-        <v>0.71127248544989952</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.98511058482794756</v>
       </c>
       <c r="G5">
-        <f ca="1">((G1/G2)*G3)-1</f>
-        <v>-0.45805674818546604</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.30047027697916417</v>
       </c>
       <c r="H5">
-        <f>((H1/H2)*H3)-1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EAB41A-F958-4F80-B4B8-0DE2B44FF56F}">
+  <dimension ref="B3:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="8.88671875" style="2"/>
+    <col min="8" max="9" width="8.88671875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:16">
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3">
+        <v>246.548286294196</v>
+      </c>
+      <c r="D3" s="2">
+        <v>266.54828629419598</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3">
+        <v>270.760242404682</v>
+      </c>
+      <c r="H3" s="2">
+        <v>290.760242404682</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3">
+        <v>311.32472204363398</v>
+      </c>
+      <c r="L3" s="2">
+        <v>331.32472204363398</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>253.60142159499901</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.3719697749999999</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>276.866131161</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.3644447369999999</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>252.92023607100001</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.430282061</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4">
+        <v>278.44238473500002</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.42671463</v>
+      </c>
+      <c r="J6" s="2">
+        <v>10</v>
+      </c>
+      <c r="K6" s="4">
+        <v>317.97859685333299</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1.4050637799999901</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="2">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4">
+        <v>255.17364771000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.4752386799999899</v>
+      </c>
+      <c r="F7" s="2">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4">
+        <v>276.57335357769199</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.47160912692307</v>
+      </c>
+      <c r="J7" s="2">
+        <v>25</v>
+      </c>
+      <c r="K7" s="4">
+        <v>314.55807448600001</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1.451568577</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="2">
+        <v>50</v>
+      </c>
+      <c r="C8" s="4">
+        <v>249.18259083000001</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.4909370579999901</v>
+      </c>
+      <c r="F8" s="2">
+        <v>50</v>
+      </c>
+      <c r="G8" s="4">
+        <v>275.85678429566599</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.48936638633333</v>
+      </c>
+      <c r="J8" s="2">
+        <v>50</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <f>C5</f>
+        <v>253.60142159499901</v>
+      </c>
+      <c r="D14" s="4">
+        <f>D5</f>
+        <v>1.3719697749999999</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <f>C6</f>
+        <v>252.92023607100001</v>
+      </c>
+      <c r="H14" s="4">
+        <f>D6</f>
+        <v>1.430282061</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <f>C7</f>
+        <v>255.17364771000001</v>
+      </c>
+      <c r="L14" s="4">
+        <f>D7</f>
+        <v>1.4752386799999899</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4">
+        <f>C8</f>
+        <v>249.18259083000001</v>
+      </c>
+      <c r="P14" s="4">
+        <f>D8</f>
+        <v>1.4909370579999901</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <f>G5</f>
+        <v>276.866131161</v>
+      </c>
+      <c r="D15" s="4">
+        <f>H5</f>
+        <v>1.3644447369999999</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4">
+        <f>G6</f>
+        <v>278.44238473500002</v>
+      </c>
+      <c r="H15" s="4">
+        <f>H6</f>
+        <v>1.42671463</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
+      <c r="K15" s="4">
+        <f>G7</f>
+        <v>276.57335357769199</v>
+      </c>
+      <c r="L15" s="4">
+        <f>H7</f>
+        <v>1.47160912692307</v>
+      </c>
+      <c r="N15" s="2">
+        <v>2</v>
+      </c>
+      <c r="O15" s="4">
+        <f>G8</f>
+        <v>275.85678429566599</v>
+      </c>
+      <c r="P15" s="4">
+        <f>H8</f>
+        <v>1.48936638633333</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2">
+        <f>K6</f>
+        <v>317.97859685333299</v>
+      </c>
+      <c r="H16" s="2">
+        <f>L6</f>
+        <v>1.4050637799999901</v>
+      </c>
+      <c r="J16" s="2">
+        <v>3</v>
+      </c>
+      <c r="K16" s="2">
+        <f>K7</f>
+        <v>314.55807448600001</v>
+      </c>
+      <c r="L16" s="2">
+        <f>L7</f>
+        <v>1.451568577</v>
+      </c>
+      <c r="N16" s="2">
+        <v>3</v>
+      </c>
+      <c r="O16" s="2">
+        <f>O7</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <f>P7</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="10001" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA339B31-CE8F-4E49-BC8C-62C0F703620E}">
+  <dimension ref="D7:P15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="2.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.109375" customWidth="1"/>
+    <col min="12" max="12" width="2.33203125" customWidth="1"/>
+    <col min="16" max="16" width="2.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:16">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" spans="4:16">
+      <c r="D8" s="11"/>
+      <c r="E8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="4:16">
+      <c r="D9" s="11"/>
+      <c r="E9" s="12">
+        <v>246.548286294196</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="12">
+        <v>266.54828629419598</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="12">
+        <v>270.760242404682</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="12">
+        <v>290.760242404682</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="12">
+        <v>311.32472204363398</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="12">
+        <v>331.32472204363398</v>
+      </c>
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" spans="4:16">
+      <c r="D10" s="11"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="4:16">
+      <c r="D11" s="11"/>
+      <c r="E11" s="9">
+        <v>5</v>
+      </c>
+      <c r="F11" s="12">
+        <v>253.60142159499901</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1.3719697749999999</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="9">
+        <v>5</v>
+      </c>
+      <c r="J11" s="12">
+        <v>276.866131161</v>
+      </c>
+      <c r="K11" s="12">
+        <v>1.3644447369999999</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="9">
+        <v>5</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="11"/>
+    </row>
+    <row r="12" spans="4:16">
+      <c r="D12" s="11"/>
+      <c r="E12" s="9">
+        <v>10</v>
+      </c>
+      <c r="F12" s="12">
+        <v>252.92023607100001</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1.430282061</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="9">
+        <v>10</v>
+      </c>
+      <c r="J12" s="12">
+        <v>278.44238473500002</v>
+      </c>
+      <c r="K12" s="12">
+        <v>1.42671463</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="9">
+        <v>10</v>
+      </c>
+      <c r="N12" s="12">
+        <v>317.97859685333299</v>
+      </c>
+      <c r="O12" s="12">
+        <v>1.4050637799999901</v>
+      </c>
+      <c r="P12" s="11"/>
+    </row>
+    <row r="13" spans="4:16">
+      <c r="D13" s="11"/>
+      <c r="E13" s="9">
+        <v>25</v>
+      </c>
+      <c r="F13" s="12">
+        <v>255.17364771000001</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1.4752386799999899</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="9">
+        <v>25</v>
+      </c>
+      <c r="J13" s="12">
+        <v>276.57335357769199</v>
+      </c>
+      <c r="K13" s="12">
+        <v>1.47160912692307</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="9">
+        <v>25</v>
+      </c>
+      <c r="N13" s="12">
+        <v>314.55807448600001</v>
+      </c>
+      <c r="O13" s="12">
+        <v>1.451568577</v>
+      </c>
+      <c r="P13" s="11"/>
+    </row>
+    <row r="14" spans="4:16">
+      <c r="D14" s="11"/>
+      <c r="E14" s="9">
+        <v>50</v>
+      </c>
+      <c r="F14" s="12">
+        <v>249.18259083000001</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1.4909370579999901</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="9">
+        <v>50</v>
+      </c>
+      <c r="J14" s="12">
+        <v>275.85678429566599</v>
+      </c>
+      <c r="K14" s="12">
+        <v>1.48936638633333</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="9">
+        <v>50</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="11"/>
+    </row>
+    <row r="15" spans="4:16">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D15:P15"/>
+    <mergeCell ref="P8:P14"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="H8:H14"/>
+    <mergeCell ref="L8:L14"/>
+    <mergeCell ref="D7:P7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafan\Akademik\Tugas_Akhir\Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75786902-ACCE-4E61-B269-26858E75675B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5CE8CE-FFA4-429A-9A2F-9F16F1C15206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C9247463-4DE4-4307-B1F9-E43CC65143A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C9247463-4DE4-4307-B1F9-E43CC65143A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Diversity" sheetId="1" r:id="rId1"/>
     <sheet name="Exreturn" sheetId="2" r:id="rId2"/>
     <sheet name="Range" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Range (2)" sheetId="5" r:id="rId4"/>
+    <sheet name="ExRet Baru" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="36">
   <si>
     <t>sim(x1,x2)</t>
   </si>
@@ -153,15 +156,30 @@
   <si>
     <t>Nan</t>
   </si>
+  <si>
+    <t>1800058.795177606</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Ex</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +231,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -255,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -263,9 +286,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -278,13 +298,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -633,7 +657,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -779,7 +802,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Range!$D$5:$D$8</c15:sqref>
@@ -806,7 +829,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Range!$C$5:$C$8</c15:sqref>
@@ -832,7 +855,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-086F-4C9F-BE64-21132C057091}"/>
                   </c:ext>
@@ -876,7 +899,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Range!$L$6:$L$7</c15:sqref>
@@ -897,7 +920,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Range!$K$6:$K$7</c15:sqref>
@@ -917,9 +940,893 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-086F-4C9F-BE64-21132C057091}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="414486224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>Diversity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404914440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404914440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>Expected</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ID" baseline="0"/>
+                  <a:t> return</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414486224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12305370796041799"/>
+          <c:y val="7.2913268914882298E-2"/>
+          <c:w val="0.82779360460377238"/>
+          <c:h val="0.6299779657172484"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v> Portfolio 5 Molekul </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Range (2)'!$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.3614681580000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Range (2)'!$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.8000587951776001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-46A7-4750-B020-22362A16A0CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v> Portfolio 10 Molekul </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Range (2)'!$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.41378952666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Range (2)'!$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.6500449763527198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-46A7-4750-B020-22362A16A0CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v> Portfolio 25 Molekul </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Range (2)'!$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.4604176250000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Range (2)'!$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>46.284436015681898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-46A7-4750-B020-22362A16A0CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="414486224"/>
+        <c:axId val="404914440"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>Range 2</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:alpha val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:ln w="38100">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:alpha val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Range (2)'!$H$5:$H$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="1">
+                        <c:v>1.41378952666666</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Range (2)'!$G$5:$G$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="1">
+                        <c:v>7650044.9763527196</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000A-086F-4C9F-BE64-21132C057091}"/>
+                    <c16:uniqueId val="{00000004-46A7-4750-B020-22362A16A0CA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>Range 1</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:alpha val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:ln w="38100">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:alpha val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Range (2)'!$D$5:$D$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>1.3614681580000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Range (2)'!$C$5:$C$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-46A7-4750-B020-22362A16A0CA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>Range 3</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:alpha val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:ln w="38100">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:alpha val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Range (2)'!$L$6:$L$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="1">
+                        <c:v>1.4604176250000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Range (2)'!$K$6:$K$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="1">
+                        <c:v>46284436.0156819</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-46A7-4750-B020-22362A16A0CA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:v> Portfolio 50 Molekul </c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                        <a:alpha val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:ln w="38100">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                          <a:alpha val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Range (2)'!$P$14:$P$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Range (2)'!$O$14:$O$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-46A7-4750-B020-22362A16A0CA}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -1287,7 +2194,565 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="249">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="38100">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="249">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1830,6 +3295,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12AA3715-C7FD-4C81-A9AF-9BD3DEC09601}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2145,7 +3653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308DE336-F0AF-4DC1-916C-64B0303F9BE7}">
   <dimension ref="D3:W29"/>
   <sheetViews>
-    <sheetView topLeftCell="K19" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
@@ -2849,23 +4357,23 @@
       </c>
       <c r="C3">
         <f ca="1">RAND()</f>
-        <v>0.56622403674748667</v>
+        <v>0.10613648683980936</v>
       </c>
       <c r="D3">
         <f ca="1">RAND()</f>
-        <v>0.2683596677890292</v>
+        <v>2.7441210746897648E-2</v>
       </c>
       <c r="E3">
         <f ca="1">RAND()</f>
-        <v>0.85507147440603692</v>
+        <v>0.14657170011176301</v>
       </c>
       <c r="F3">
         <f ca="1">RAND()</f>
-        <v>0.39702211696558953</v>
+        <v>0.40083380265034452</v>
       </c>
       <c r="G3">
         <f ca="1">RAND()</f>
-        <v>0.13990594460416717</v>
+        <v>0.12962213353580121</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2878,23 +4386,23 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8311201837374333</v>
+        <v>-0.46931756580095318</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.341798338945146</v>
+        <v>-0.86279394626551176</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2753573720301845</v>
+        <v>-0.26714149944118493</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98511058482794767</v>
+        <v>1.0041690132517225</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.30047027697916417</v>
+        <v>-0.35188933232099395</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
@@ -2908,23 +4416,23 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8311201837374336</v>
+        <v>-0.46931756580095318</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.341798338945146</v>
+        <v>-0.86279394626551176</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>3.275357372030185</v>
+        <v>-0.26714149944118493</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98511058482794756</v>
+        <v>1.0041690132517225</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.30047027697916417</v>
+        <v>-0.35188933232099395</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -3299,10 +4807,569 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D3837D-9B94-4983-8533-C6B581A72209}">
+  <dimension ref="B3:P16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="2"/>
+    <col min="6" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="16" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:16">
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3">
+        <v>246.548286294196</v>
+      </c>
+      <c r="D3" s="2">
+        <v>266.54828629419598</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3">
+        <v>270.760242404682</v>
+      </c>
+      <c r="H3" s="2">
+        <v>290.760242404682</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3">
+        <v>311.32472204363398</v>
+      </c>
+      <c r="L3" s="2">
+        <v>331.32472204363398</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1.3614681580000001</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="J5" s="2">
+        <v>5</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10">
+        <v>7650044.9763527196</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1.41378952666666</v>
+      </c>
+      <c r="J6" s="2">
+        <v>10</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="2">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="F7" s="2">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="2">
+        <v>25</v>
+      </c>
+      <c r="K7" s="10">
+        <v>46284436.0156819</v>
+      </c>
+      <c r="L7" s="10">
+        <v>1.4604176250000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="2">
+        <v>50</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="F8" s="2">
+        <v>50</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="J8" s="2">
+        <v>50</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <f>C5/1000000</f>
+        <v>1.8000587951776001</v>
+      </c>
+      <c r="D14" s="4">
+        <f>D5</f>
+        <v>1.3614681580000001</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <f>C6</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f>D6</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <f>C7</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <f>D7</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4">
+        <f>C8</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <f>D8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <f>G5</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4">
+        <f>G6/1000000</f>
+        <v>7.6500449763527198</v>
+      </c>
+      <c r="H15" s="4">
+        <f>H6</f>
+        <v>1.41378952666666</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
+      <c r="K15" s="4">
+        <f>G7</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <f>H7</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>2</v>
+      </c>
+      <c r="O15" s="4">
+        <f>G8</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <f>H8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2">
+        <f>K6</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <f>L6</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>3</v>
+      </c>
+      <c r="K16" s="2">
+        <f>K7/1000000</f>
+        <v>46.284436015681898</v>
+      </c>
+      <c r="L16" s="2">
+        <f>L7</f>
+        <v>1.4604176250000001</v>
+      </c>
+      <c r="N16" s="2">
+        <v>3</v>
+      </c>
+      <c r="O16" s="2">
+        <f>O7</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <f>P7</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="10001" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86A7007-AE8A-45EF-88BC-FDC9A6AAF9FF}">
+  <dimension ref="B1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1">
+        <f>E13*F1</f>
+        <v>3500</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>100000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2">
+        <f>SUM(G3:G12)-C1</f>
+        <v>25789.682539682537</v>
+      </c>
+      <c r="J2">
+        <f>I2/C1</f>
+        <v>7.3684807256235816</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>1/(C3*10)</f>
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>D3*E3*$C$2</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D12" si="0">1/(C4*10)</f>
+        <v>0.05</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G12" si="1">D4*E4*$C$2</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>3333.3333333333335</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1666.6666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1428.5714285714284</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1111.1111111111111</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="E13">
+        <f>SUM(E3:E12)</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA339B31-CE8F-4E49-BC8C-62C0F703620E}">
   <dimension ref="D7:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -3333,213 +5400,213 @@
     </row>
     <row r="8" spans="4:16">
       <c r="D8" s="11"/>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="10" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="10" t="s">
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="4:16">
       <c r="D9" s="11"/>
-      <c r="E9" s="12">
+      <c r="E9" s="9">
         <v>246.548286294196</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="9">
         <v>266.54828629419598</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="12">
+      <c r="H9" s="13"/>
+      <c r="I9" s="9">
         <v>270.760242404682</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="9">
         <v>290.760242404682</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="12">
+      <c r="L9" s="13"/>
+      <c r="M9" s="9">
         <v>311.32472204363398</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="9">
         <v>331.32472204363398</v>
       </c>
       <c r="P9" s="11"/>
     </row>
     <row r="10" spans="4:16">
       <c r="D10" s="11"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9" t="s">
+      <c r="H10" s="13"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9" t="s">
+      <c r="L10" s="13"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="8" t="s">
         <v>22</v>
       </c>
       <c r="P10" s="11"/>
     </row>
     <row r="11" spans="4:16">
       <c r="D11" s="11"/>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>5</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="9">
         <v>253.60142159499901</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="9">
         <v>1.3719697749999999</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="9">
+      <c r="H11" s="13"/>
+      <c r="I11" s="8">
         <v>5</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="9">
         <v>276.866131161</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="9">
         <v>1.3644447369999999</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="9">
+      <c r="L11" s="13"/>
+      <c r="M11" s="8">
         <v>5</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="4:16">
       <c r="D12" s="11"/>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>10</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="9">
         <v>252.92023607100001</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="9">
         <v>1.430282061</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="9">
+      <c r="H12" s="13"/>
+      <c r="I12" s="8">
         <v>10</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="9">
         <v>278.44238473500002</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="9">
         <v>1.42671463</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="9">
+      <c r="L12" s="13"/>
+      <c r="M12" s="8">
         <v>10</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="9">
         <v>317.97859685333299</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="9">
         <v>1.4050637799999901</v>
       </c>
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="4:16">
       <c r="D13" s="11"/>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>25</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="9">
         <v>255.17364771000001</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="9">
         <v>1.4752386799999899</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="9">
+      <c r="H13" s="13"/>
+      <c r="I13" s="8">
         <v>25</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="9">
         <v>276.57335357769199</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="9">
         <v>1.47160912692307</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="9">
+      <c r="L13" s="13"/>
+      <c r="M13" s="8">
         <v>25</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="9">
         <v>314.55807448600001</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="9">
         <v>1.451568577</v>
       </c>
       <c r="P13" s="11"/>
     </row>
     <row r="14" spans="4:16">
       <c r="D14" s="11"/>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>50</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="9">
         <v>249.18259083000001</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="9">
         <v>1.4909370579999901</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="9">
+      <c r="H14" s="13"/>
+      <c r="I14" s="8">
         <v>50</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="9">
         <v>275.85678429566599</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="9">
         <v>1.48936638633333</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="9">
+      <c r="L14" s="13"/>
+      <c r="M14" s="8">
         <v>50</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="P14" s="11"/>
@@ -3561,6 +5628,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D7:P7"/>
     <mergeCell ref="D15:P15"/>
     <mergeCell ref="P8:P14"/>
     <mergeCell ref="D8:D14"/>
@@ -3569,8 +5637,21 @@
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="H8:H14"/>
     <mergeCell ref="L8:L14"/>
-    <mergeCell ref="D7:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB78231-C852-4220-8636-956DEA20468B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>